--- a/data/output/set50/moderate_noisy/results/psnr.xlsx
+++ b/data/output/set50/moderate_noisy/results/psnr.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\GaussianExperiments\data\output\moderate_noisy\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\GaussianExperiments\data\output\set50\moderate_noisy\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E86D01CB-F1B1-447E-B202-E7CBF8AD50DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948C0EB7-D8E0-4BF7-83A3-9B75A7346BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>psnr_nlm</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>psnr_bm3d</t>
+  </si>
+  <si>
+    <t>psnr_dual</t>
   </si>
 </sst>
 </file>
@@ -414,577 +417,730 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>35.8737584</v>
+      </c>
+      <c r="B2">
         <v>34.419735850000002</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>35.406702490000001</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>36.999498080000002</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>34.367576360000001</v>
+      </c>
+      <c r="B3">
         <v>32.840454630000004</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>33.847944009999999</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>34.88527217</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>33.242258</v>
+      </c>
+      <c r="B4">
         <v>31.75034527</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>32.833391900000002</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>33.513275280000002</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>33.343154589999997</v>
+      </c>
+      <c r="B5">
         <v>32.425326470000002</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>33.407023180000003</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>32.316836510000002</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>33.563916460000002</v>
+      </c>
+      <c r="B6">
         <v>31.758894210000001</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>32.846612110000002</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>33.618283910000002</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
+        <v>34.215342800000002</v>
+      </c>
+      <c r="B7">
         <v>32.139752280000003</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>33.360576909999999</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>34.18238942</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
+        <v>34.116074310000002</v>
+      </c>
+      <c r="B8">
         <v>31.136745309999998</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>32.027806069999997</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>30.988126579999999</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
+        <v>31.042537549999999</v>
+      </c>
+      <c r="B9">
         <v>30.026369949999999</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>31.028285489999998</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>30.806140190000001</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
+        <v>33.56472806</v>
+      </c>
+      <c r="B10">
         <v>31.893798140000001</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>32.855591080000004</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>33.581934169999997</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
+        <v>33.0981399</v>
+      </c>
+      <c r="B11">
         <v>31.037589799999999</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>31.863696529999999</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>30.49030978</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
+        <v>35.24623072</v>
+      </c>
+      <c r="B12">
         <v>33.488336539999999</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>34.610591990000003</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>35.955799499999998</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
+        <v>31.517862399999999</v>
+      </c>
+      <c r="B13">
         <v>31.140935580000001</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>31.8965447</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>31.477969699999999</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
+        <v>32.850727190000001</v>
+      </c>
+      <c r="B14">
         <v>31.06206525</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>32.078381839999999</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>32.061545770000002</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
+        <v>34.761755149999999</v>
+      </c>
+      <c r="B15">
         <v>32.01477843</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>33.252337859999997</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>34.404649390000003</v>
       </c>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
+        <v>32.956643939999999</v>
+      </c>
+      <c r="B16">
         <v>28.80672083</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>29.368998149999999</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>27.586909689999999</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
+        <v>33.438986409999998</v>
+      </c>
+      <c r="B17">
         <v>29.813480630000001</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>30.386711080000001</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>30.138010090000002</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
+        <v>32.105901719999999</v>
+      </c>
+      <c r="B18">
         <v>28.834541439999999</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>29.340555439999999</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>26.278265680000001</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
+        <v>31.231994050000001</v>
+      </c>
+      <c r="B19">
         <v>29.442138960000001</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>30.25709033</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>29.668550740000001</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
+        <v>30.78834406</v>
+      </c>
+      <c r="B20">
         <v>29.524944909999999</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>30.014429310000001</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>25.724840319999998</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
+        <v>32.322617319999999</v>
+      </c>
+      <c r="B21">
         <v>30.904383490000001</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>31.960708400000001</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>31.785433380000001</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
+        <v>33.302342230000001</v>
+      </c>
+      <c r="B22">
         <v>29.89448883</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>30.796194329999999</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>31.013392440000001</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
+        <v>33.033702609999999</v>
+      </c>
+      <c r="B23">
         <v>31.66447681</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>32.456476240000001</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>32.813415659999997</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
+        <v>33.590382599999998</v>
+      </c>
+      <c r="B24">
         <v>31.28010978</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>31.533637649999999</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>29.411789169999999</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
+        <v>36.23699688</v>
+      </c>
+      <c r="B25">
         <v>34.909010649999999</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>35.654508139999997</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>36.941535500000001</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
+        <v>33.95876268</v>
+      </c>
+      <c r="B26">
         <v>32.49184863</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>33.380496409999999</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>34.178630769999998</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
+        <v>35.835473909999997</v>
+      </c>
+      <c r="B27">
         <v>34.856629589999997</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>35.190102250000002</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>36.130120460000001</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
+        <v>33.485978719999999</v>
+      </c>
+      <c r="B28">
         <v>32.461299940000004</v>
       </c>
-      <c r="B28">
+      <c r="C28">
         <v>33.39582643</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>34.221263569999998</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
+        <v>35.654690799999997</v>
+      </c>
+      <c r="B29">
         <v>34.657266679999999</v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <v>35.117006930000002</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>35.12217476</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
+        <v>34.308185530000003</v>
+      </c>
+      <c r="B30">
         <v>32.638503020000002</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>33.403829770000002</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>33.92958986</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
+        <v>32.26939883</v>
+      </c>
+      <c r="B31">
         <v>28.633309610000001</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>29.39168978</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>27.298920379999998</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
+        <v>32.40814125</v>
+      </c>
+      <c r="B32">
         <v>30.43493411</v>
       </c>
-      <c r="B32">
+      <c r="C32">
         <v>31.528164579999999</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>30.929693100000001</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
+        <v>31.899109549999999</v>
+      </c>
+      <c r="B33">
         <v>28.89084424</v>
       </c>
-      <c r="B33">
+      <c r="C33">
         <v>29.10995767</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>26.185732699999999</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
+        <v>31.695940619999998</v>
+      </c>
+      <c r="B34">
         <v>29.864587950000001</v>
       </c>
-      <c r="B34">
+      <c r="C34">
         <v>30.863610529999999</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>28.590395189999999</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
+        <v>32.164499650000003</v>
+      </c>
+      <c r="B35">
         <v>30.573164309999999</v>
       </c>
-      <c r="B35">
+      <c r="C35">
         <v>31.63614746</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>31.521399110000001</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
+        <v>32.139545040000002</v>
+      </c>
+      <c r="B36">
         <v>29.965209389999998</v>
       </c>
-      <c r="B36">
+      <c r="C36">
         <v>30.89247056</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>30.994284010000001</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
+        <v>33.182599750000001</v>
+      </c>
+      <c r="B37">
         <v>32.021524550000002</v>
       </c>
-      <c r="B37">
+      <c r="C37">
         <v>32.817061209999999</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>33.117827869999999</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
+        <v>32.395735899999998</v>
+      </c>
+      <c r="B38">
         <v>30.346810349999998</v>
       </c>
-      <c r="B38">
+      <c r="C38">
         <v>31.492317369999999</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>31.756444429999998</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
+        <v>31.84832566</v>
+      </c>
+      <c r="B39">
         <v>30.115828130000001</v>
       </c>
-      <c r="B39">
+      <c r="C39">
         <v>31.07846953</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>31.130196959999999</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
+        <v>34.264384319999998</v>
+      </c>
+      <c r="B40">
         <v>32.139252319999997</v>
       </c>
-      <c r="B40">
+      <c r="C40">
         <v>33.111874229999998</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>34.080037249999997</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
+        <v>35.393887710000001</v>
+      </c>
+      <c r="B41">
         <v>33.917233529999997</v>
       </c>
-      <c r="B41">
+      <c r="C41">
         <v>34.164550439999999</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>35.352308639999997</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
+        <v>34.114728999999997</v>
+      </c>
+      <c r="B42">
         <v>33.2047557</v>
       </c>
-      <c r="B42">
+      <c r="C42">
         <v>34.125968909999997</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>35.194063569999997</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
+        <v>33.84263035</v>
+      </c>
+      <c r="B43">
         <v>31.615826380000001</v>
       </c>
-      <c r="B43">
+      <c r="C43">
         <v>33.029032839999999</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>33.919704369999998</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
+        <v>32.577649950000001</v>
+      </c>
+      <c r="B44">
         <v>31.582174139999999</v>
       </c>
-      <c r="B44">
+      <c r="C44">
         <v>32.56899138</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>28.73012477</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
+        <v>34.566123670000003</v>
+      </c>
+      <c r="B45">
         <v>32.091111230000003</v>
       </c>
-      <c r="B45">
+      <c r="C45">
         <v>33.542602840000001</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>34.0738846</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
+        <v>31.49534079</v>
+      </c>
+      <c r="B46">
         <v>28.297032040000001</v>
       </c>
-      <c r="B46">
+      <c r="C46">
         <v>28.194971880000001</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>19.878250749999999</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
+        <v>32.836130439999998</v>
+      </c>
+      <c r="B47">
         <v>31.167732359999999</v>
       </c>
-      <c r="B47">
+      <c r="C47">
         <v>32.257386850000003</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <v>32.735881030000002</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
+        <v>32.961451619999998</v>
+      </c>
+      <c r="B48">
         <v>29.557803320000001</v>
       </c>
-      <c r="B48">
+      <c r="C48">
         <v>30.539855370000001</v>
       </c>
-      <c r="C48">
+      <c r="D48">
         <v>30.40369973</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
+        <v>32.63348088</v>
+      </c>
+      <c r="B49">
         <v>29.234460559999999</v>
       </c>
-      <c r="B49">
+      <c r="C49">
         <v>29.99063387</v>
       </c>
-      <c r="C49">
+      <c r="D49">
         <v>29.539324669999999</v>
       </c>
-      <c r="I49" s="2"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J49" s="2"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
+        <v>34.758508130000003</v>
+      </c>
+      <c r="B50">
         <v>32.612965629999998</v>
       </c>
-      <c r="B50">
+      <c r="C50">
         <v>33.880133749999999</v>
       </c>
-      <c r="C50">
+      <c r="D50">
         <v>35.025887189999999</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
+        <v>33.247196799999998</v>
+      </c>
+      <c r="B51">
         <v>31.444257010000001</v>
       </c>
-      <c r="B51">
+      <c r="C51">
         <v>31.73928738</v>
       </c>
-      <c r="C51">
+      <c r="D51">
         <v>29.533001179999999</v>
       </c>
     </row>
